--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/S100a9-Tlr4.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H2">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I2">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J2">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N2">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O2">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P2">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q2">
-        <v>1.1771179655625</v>
+        <v>0.8894077276785</v>
       </c>
       <c r="R2">
-        <v>4.70847186225</v>
+        <v>3.557630910714</v>
       </c>
       <c r="S2">
-        <v>0.0002581098338303968</v>
+        <v>1.509981642644678E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001215190284499212</v>
+        <v>6.981981002673469E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H3">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I3">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J3">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P3">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q3">
-        <v>0.9793961779724999</v>
+        <v>0.6249178739001666</v>
       </c>
       <c r="R3">
-        <v>5.876377067835</v>
+        <v>3.749507243401</v>
       </c>
       <c r="S3">
-        <v>0.0002147548437337868</v>
+        <v>1.060947064416432E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001516610172004869</v>
+        <v>7.358545335316515E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H4">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I4">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J4">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N4">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O4">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P4">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q4">
-        <v>3.9815119673325</v>
+        <v>2.874679001443</v>
       </c>
       <c r="R4">
-        <v>23.889071803995</v>
+        <v>17.248074008658</v>
       </c>
       <c r="S4">
-        <v>0.0008730368768017611</v>
+        <v>4.880452896451706E-06</v>
       </c>
       <c r="T4">
-        <v>0.0006165433034582598</v>
+        <v>3.384997715712655E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H5">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I5">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J5">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N5">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O5">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P5">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q5">
-        <v>0.68917202328375</v>
+        <v>0.526436126085</v>
       </c>
       <c r="R5">
-        <v>2.756688093135</v>
+        <v>2.10574450434</v>
       </c>
       <c r="S5">
-        <v>0.0001511166099018155</v>
+        <v>8.937508205468056E-07</v>
       </c>
       <c r="T5">
-        <v>7.114623780658044E-05</v>
+        <v>4.132600737617063E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H6">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I6">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J6">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N6">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O6">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P6">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q6">
-        <v>1.1243895959025</v>
+        <v>4.871844336195167</v>
       </c>
       <c r="R6">
-        <v>6.746337575415</v>
+        <v>29.231066017171</v>
       </c>
       <c r="S6">
-        <v>0.0002465479418796722</v>
+        <v>8.271117154197153E-06</v>
       </c>
       <c r="T6">
-        <v>0.0001741134728514386</v>
+        <v>5.736703799293838E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1484325</v>
+        <v>0.0947095</v>
       </c>
       <c r="H7">
-        <v>0.296865</v>
+        <v>0.189419</v>
       </c>
       <c r="I7">
-        <v>0.00248842201788839</v>
+        <v>2.065300452790679E-05</v>
       </c>
       <c r="J7">
-        <v>0.001661004281353026</v>
+        <v>1.376883763514263E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N7">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O7">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P7">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q7">
-        <v>3.396938669302499</v>
+        <v>2.377724964043167</v>
       </c>
       <c r="R7">
-        <v>20.381632015815</v>
+        <v>14.266349784259</v>
       </c>
       <c r="S7">
-        <v>0.0007448559117409578</v>
+        <v>4.036754949650017E-06</v>
       </c>
       <c r="T7">
-        <v>0.0005260212215863387</v>
+        <v>2.799823412575431E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H8">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I8">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J8">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N8">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O8">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P8">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q8">
-        <v>425.28583545305</v>
+        <v>1253.499723311436</v>
       </c>
       <c r="R8">
-        <v>2551.7150127183</v>
+        <v>7520.998339868615</v>
       </c>
       <c r="S8">
-        <v>0.09325357315972412</v>
+        <v>0.002128114600713972</v>
       </c>
       <c r="T8">
-        <v>0.06585617123735552</v>
+        <v>0.001476023478769543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H9">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I9">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J9">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P9">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q9">
-        <v>353.8501101625087</v>
+        <v>880.737099137716</v>
       </c>
       <c r="R9">
-        <v>3184.650991462578</v>
+        <v>7926.633892239443</v>
       </c>
       <c r="S9">
-        <v>0.07758966884110763</v>
+        <v>0.001495261183715287</v>
       </c>
       <c r="T9">
-        <v>0.08219135756917964</v>
+        <v>0.001555630942043289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H10">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I10">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J10">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N10">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O10">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P10">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q10">
-        <v>1438.496984101474</v>
+        <v>4051.470681869928</v>
       </c>
       <c r="R10">
-        <v>12946.47285691327</v>
+        <v>36463.23613682935</v>
       </c>
       <c r="S10">
-        <v>0.315423116794019</v>
+        <v>0.006878337308024936</v>
       </c>
       <c r="T10">
-        <v>0.3341302336409383</v>
+        <v>0.00715604368167144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H11">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I11">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J11">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N11">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O11">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P11">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q11">
-        <v>248.993820728103</v>
+        <v>741.9404147871599</v>
       </c>
       <c r="R11">
-        <v>1493.962924368618</v>
+        <v>4451.64248872296</v>
       </c>
       <c r="S11">
-        <v>0.05459754720693194</v>
+        <v>0.001259620724444344</v>
       </c>
       <c r="T11">
-        <v>0.03855707932864745</v>
+        <v>0.0008736511478285948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H12">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I12">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J12">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N12">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O12">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P12">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q12">
-        <v>406.2353839273913</v>
+        <v>6866.204708359037</v>
       </c>
       <c r="R12">
-        <v>3656.118455346522</v>
+        <v>61795.84237523132</v>
       </c>
       <c r="S12">
-        <v>0.08907632922875405</v>
+        <v>0.01165701931927708</v>
       </c>
       <c r="T12">
-        <v>0.09435926890709458</v>
+        <v>0.01212766046665245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.627794</v>
+        <v>133.480212</v>
       </c>
       <c r="H13">
-        <v>160.883382</v>
+        <v>400.440636</v>
       </c>
       <c r="I13">
-        <v>0.89905231913754</v>
+        <v>0.02910761246571842</v>
       </c>
       <c r="J13">
-        <v>0.9001666963116378</v>
+        <v>0.02910796751961128</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N13">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O13">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P13">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q13">
-        <v>1227.294070961471</v>
+        <v>3351.081277782844</v>
       </c>
       <c r="R13">
-        <v>11045.64663865324</v>
+        <v>30159.7315000456</v>
       </c>
       <c r="S13">
-        <v>0.2691120839070033</v>
+        <v>0.005689259329542798</v>
       </c>
       <c r="T13">
-        <v>0.2850725856284223</v>
+        <v>0.005918957802645964</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>0.146198</v>
       </c>
       <c r="I14">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J14">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N14">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O14">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P14">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q14">
-        <v>0.579698827175</v>
+        <v>0.6864656183969999</v>
       </c>
       <c r="R14">
-        <v>2.3187953087</v>
+        <v>2.745862473588</v>
       </c>
       <c r="S14">
-        <v>0.0001271121266782421</v>
+        <v>1.16543903299757E-06</v>
       </c>
       <c r="T14">
-        <v>5.984484166648672E-05</v>
+        <v>5.388855704173583E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.146198</v>
       </c>
       <c r="I15">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J15">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P15">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q15">
         <v>0.4823261833736666</v>
@@ -1385,10 +1385,10 @@
         <v>2.893957100241999</v>
       </c>
       <c r="S15">
-        <v>0.0001057609642234422</v>
+        <v>8.188636774745589E-07</v>
       </c>
       <c r="T15">
-        <v>7.468895758232459E-05</v>
+        <v>5.679496834702981E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.146198</v>
       </c>
       <c r="I16">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J16">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N16">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O16">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P16">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q16">
-        <v>1.960787181379</v>
+        <v>2.218744268806</v>
       </c>
       <c r="R16">
-        <v>11.764723088274</v>
+        <v>13.312465612836</v>
       </c>
       <c r="S16">
-        <v>0.0004299470982253343</v>
+        <v>3.766847320255341E-06</v>
       </c>
       <c r="T16">
-        <v>0.0003036309362133989</v>
+        <v>2.612620149202343E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.146198</v>
       </c>
       <c r="I17">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J17">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N17">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O17">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P17">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q17">
-        <v>0.3393986204505</v>
+        <v>0.40631567457</v>
       </c>
       <c r="R17">
-        <v>1.357594481802</v>
+        <v>1.62526269828</v>
       </c>
       <c r="S17">
-        <v>7.442085168149034E-05</v>
+        <v>6.898177187204129E-07</v>
       </c>
       <c r="T17">
-        <v>3.503760185554527E-05</v>
+        <v>3.189637589883483E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.146198</v>
       </c>
       <c r="I18">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J18">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N18">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O18">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P18">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q18">
-        <v>0.5537315282763333</v>
+        <v>3.760203032763667</v>
       </c>
       <c r="R18">
-        <v>3.322389169658</v>
+        <v>22.561218196582</v>
       </c>
       <c r="S18">
-        <v>0.0001214182069524003</v>
+        <v>6.383841038698944E-06</v>
       </c>
       <c r="T18">
-        <v>8.57461859900447E-05</v>
+        <v>4.427721728280481E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.146198</v>
       </c>
       <c r="I19">
-        <v>0.001225480680347117</v>
+        <v>1.594047036448781E-05</v>
       </c>
       <c r="J19">
-        <v>0.0008179997774249226</v>
+        <v>1.062710987061795E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N19">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O19">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P19">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q19">
-        <v>1.672900609956333</v>
+        <v>1.835183557579666</v>
       </c>
       <c r="R19">
-        <v>10.037403659738</v>
+        <v>11.011101345478</v>
       </c>
       <c r="S19">
-        <v>0.0003668214325862077</v>
+        <v>3.115661576340986E-06</v>
       </c>
       <c r="T19">
-        <v>0.0002590512541171224</v>
+        <v>2.160968980259123E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H20">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I20">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J20">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N20">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O20">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P20">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q20">
-        <v>5.979803410533332</v>
+        <v>41483.44888747323</v>
       </c>
       <c r="R20">
-        <v>35.87882046319999</v>
+        <v>248900.6933248394</v>
       </c>
       <c r="S20">
-        <v>0.001311207635756068</v>
+        <v>0.07042804367932813</v>
       </c>
       <c r="T20">
-        <v>0.0009259818327838019</v>
+        <v>0.04884767295878682</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H21">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I21">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J21">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P21">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q21">
-        <v>4.975369314412443</v>
+        <v>29147.20422822415</v>
       </c>
       <c r="R21">
-        <v>44.77832382971199</v>
+        <v>262324.8380540173</v>
       </c>
       <c r="S21">
-        <v>0.001090962660122331</v>
+        <v>0.04948432754672784</v>
       </c>
       <c r="T21">
-        <v>0.001155665482686417</v>
+        <v>0.05148221054372839</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H22">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I22">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J22">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N22">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O22">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P22">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q22">
-        <v>20.22623011276266</v>
+        <v>134079.7878331005</v>
       </c>
       <c r="R22">
-        <v>182.036071014864</v>
+        <v>1206718.090497904</v>
       </c>
       <c r="S22">
-        <v>0.004435060075670342</v>
+        <v>0.227632402976893</v>
       </c>
       <c r="T22">
-        <v>0.004698094655703523</v>
+        <v>0.2368228462954258</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H23">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I23">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J23">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N23">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O23">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P23">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q23">
-        <v>3.501019724312</v>
+        <v>24553.85246760592</v>
       </c>
       <c r="R23">
-        <v>21.006118345872</v>
+        <v>147323.1148056355</v>
       </c>
       <c r="S23">
-        <v>0.0007676780456301105</v>
+        <v>0.0416860179291052</v>
       </c>
       <c r="T23">
-        <v>0.0005421383343840608</v>
+        <v>0.0289127010261217</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H24">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I24">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J24">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N24">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O24">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P24">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q24">
-        <v>5.711941315187554</v>
+        <v>227230.8854745333</v>
       </c>
       <c r="R24">
-        <v>51.40747183668799</v>
+        <v>2045077.9692708</v>
       </c>
       <c r="S24">
-        <v>0.001252472791040549</v>
+        <v>0.385778597408891</v>
       </c>
       <c r="T24">
-        <v>0.001326754457798929</v>
+        <v>0.401354043991289</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7540426666666665</v>
+        <v>4417.407877333333</v>
       </c>
       <c r="H25">
-        <v>2.262128</v>
+        <v>13252.223632</v>
       </c>
       <c r="I25">
-        <v>0.01264127717420787</v>
+        <v>0.9632903234857798</v>
       </c>
       <c r="J25">
-        <v>0.01265694606291936</v>
+        <v>0.9633020736758621</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N25">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O25">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P25">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q25">
-        <v>17.25657583550755</v>
+        <v>110901.0287911603</v>
       </c>
       <c r="R25">
-        <v>155.309182519568</v>
+        <v>998109.2591204431</v>
       </c>
       <c r="S25">
-        <v>0.003783895965988466</v>
+        <v>0.1882809339448346</v>
       </c>
       <c r="T25">
-        <v>0.004008311299562633</v>
+        <v>0.1958825988605103</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H26">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I26">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J26">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N26">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O26">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P26">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q26">
-        <v>40.015460380675</v>
+        <v>325.801893985953</v>
       </c>
       <c r="R26">
-        <v>240.09276228405</v>
+        <v>1954.811363915718</v>
       </c>
       <c r="S26">
-        <v>0.008774298015719528</v>
+        <v>0.0005531263825891636</v>
       </c>
       <c r="T26">
-        <v>0.006196456103843768</v>
+        <v>0.0003836388919819279</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H27">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I27">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J27">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P27">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q27">
-        <v>33.29401988858034</v>
+        <v>228.9157386048097</v>
       </c>
       <c r="R27">
-        <v>299.646178997223</v>
+        <v>2060.241647443287</v>
       </c>
       <c r="S27">
-        <v>0.007300469615108526</v>
+        <v>0.0003886390372477827</v>
       </c>
       <c r="T27">
-        <v>0.007733445928053922</v>
+        <v>0.000404329971387583</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H28">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I28">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J28">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N28">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O28">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P28">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q28">
-        <v>135.349250495759</v>
+        <v>1053.033197402494</v>
       </c>
       <c r="R28">
-        <v>1218.143254461831</v>
+        <v>9477.298776622447</v>
       </c>
       <c r="S28">
-        <v>0.0296783955190379</v>
+        <v>0.001787774883993324</v>
       </c>
       <c r="T28">
-        <v>0.03143856204851357</v>
+        <v>0.001859954606751446</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H29">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I29">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J29">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N29">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O29">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P29">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q29">
-        <v>23.4280136740605</v>
+        <v>192.84056299893</v>
       </c>
       <c r="R29">
-        <v>140.568082044363</v>
+        <v>1157.04337799358</v>
       </c>
       <c r="S29">
-        <v>0.005137123800075881</v>
+        <v>0.00032739282673616</v>
       </c>
       <c r="T29">
-        <v>0.003627864254228997</v>
+        <v>0.000227074001973943</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H30">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I30">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J30">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N30">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O30">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P30">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q30">
-        <v>38.22298923606967</v>
+        <v>1784.62145373992</v>
       </c>
       <c r="R30">
-        <v>344.006903124627</v>
+        <v>16061.59308365928</v>
       </c>
       <c r="S30">
-        <v>0.008381258029231191</v>
+        <v>0.003029820351629805</v>
       </c>
       <c r="T30">
-        <v>0.008878333750473895</v>
+        <v>0.003152146487289047</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.045879</v>
+        <v>34.693351</v>
       </c>
       <c r="H31">
-        <v>15.137637</v>
+        <v>104.080053</v>
       </c>
       <c r="I31">
-        <v>0.08459250099001669</v>
+        <v>0.007565470573609403</v>
       </c>
       <c r="J31">
-        <v>0.0846973535666649</v>
+        <v>0.007565562857020888</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N31">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O31">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P31">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q31">
-        <v>115.4770114073497</v>
+        <v>870.9923160719036</v>
       </c>
       <c r="R31">
-        <v>1039.293102666147</v>
+        <v>7838.930844647133</v>
       </c>
       <c r="S31">
-        <v>0.02532095601084366</v>
+        <v>0.001478717091413167</v>
       </c>
       <c r="T31">
-        <v>0.02682269148155074</v>
+        <v>0.001538418897636941</v>
       </c>
     </row>
   </sheetData>
